--- a/Graph2.xlsx
+++ b/Graph2.xlsx
@@ -4,23 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12435" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="k=n (an+b)" sheetId="1" r:id="rId1"/>
-    <sheet name="k=n (anlogn+bn + c)" sheetId="2" r:id="rId2"/>
+    <sheet name="k=n (n)" sheetId="4" r:id="rId1"/>
+    <sheet name="k=n (nlog2n)" sheetId="2" r:id="rId2"/>
+    <sheet name="k=1 (n^2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -28,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -40,6 +50,88 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,7 +144,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,38 +166,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -113,48 +181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,27 +194,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,7 +206,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,13 +290,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,157 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +397,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,50 +430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,11 +458,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,157 +473,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,60 +784,102 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$A$10:$A$18</c:f>
+              <c:f>'k=n (n)'!$A$20:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>600000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>700000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>900000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$B$10:$B$18</c:f>
+              <c:f>'k=n (n)'!$B$20:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1.516667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.966667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.416667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.866667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.316667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.766667</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>74.666667</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>95.566667</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>116.466667</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>137.366667</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>158.266667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>179.166667</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>200.066667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>304.566667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,7 +929,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$A$2:$A$7</c:f>
+              <c:f>'k=n (n)'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -902,7 +956,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$B$2:$B$7</c:f>
+              <c:f>'k=n (n)'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -972,10 +1026,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$A$19:$A$25</c:f>
+              <c:f>'k=n (n)'!$A$9:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>400000</c:v>
                 </c:pt>
@@ -996,16 +1050,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (an+b)'!$B$19:$B$25</c:f>
+              <c:f>'k=n (n)'!$B$9:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1026,6 +1083,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,60 +1441,102 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$A$10:$A$18</c:f>
+              <c:f>'k=n (nlog2n)'!$A$20:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>600000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>700000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>900000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$B$10:$B$18</c:f>
+              <c:f>'k=n (nlog2n)'!$B$20:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.00110532396605288</c:v>
+                  <c:v>4.28252469626901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00151693204907933</c:v>
+                  <c:v>11.070434272538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00195395836195793</c:v>
+                  <c:v>20.3050356171615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00241212248035283</c:v>
+                  <c:v>31.1285220050761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00288838213210577</c:v>
+                  <c:v>43.1334925176141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00338046261225481</c:v>
+                  <c:v>56.079993274323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00388659829815865</c:v>
+                  <c:v>84.2092346301521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.701444235228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.076714328646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.017937936903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216.299734200304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252.753585993096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290.248690570456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>490.262854589229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1586,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$A$2:$A$7</c:f>
+              <c:f>'k=n (nlog2n)'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1511,7 +1613,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$B$2:$B$7</c:f>
+              <c:f>'k=n (nlog2n)'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1581,10 +1683,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$A$19:$A$25</c:f>
+              <c:f>'k=n (nlog2n)'!$A$9:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>400000</c:v>
                 </c:pt>
@@ -1605,16 +1707,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'k=n (anlogn+bn + c)'!$B$19:$B$25</c:f>
+              <c:f>'k=n (nlog2n)'!$B$9:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1635,6 +1740,642 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1088"/>
+        <c:axId val="1089"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>t, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.08541"/>
+          <c:y val="0.02934"/>
+          <c:w val="0.88814"/>
+          <c:h val="0.87063"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Assumed time, ms"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Assumed time, ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$A$20:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$B$20:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.256190602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.54474392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.84897292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.41441007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.67797042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>838.25771117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2374.99168857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3437.62767287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5399.41789382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9649.96491407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15126.63274932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21829.42139957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Average time, ms"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average time, ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Real time, ms"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real time, ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$A$9:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k=1 (n^2)'!$B$9:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,6 +2680,17 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="acrossLinear" id="2">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2456,6 +3208,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2992,7 +4260,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2214880" y="36195"/>
+        <a:off x="2300605" y="36195"/>
         <a:ext cx="14141450" cy="6935470"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3028,6 +4296,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2379980" y="36195"/>
+        <a:ext cx="14141450" cy="6935470"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>646430</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179705</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2341880" y="55245"/>
         <a:ext cx="14141450" cy="6935470"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3299,16 +4602,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.70833333333333"/>
-    <col min="2" max="2" width="10.375"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.7083333333333"/>
   </cols>
   <sheetData>
@@ -3368,123 +4671,210 @@
         <v>57</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>400000</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+    </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B16" si="0">0.000209*A10-8.933333</f>
-        <v>74.666667</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
+        <v>600000</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>700000</v>
+      </c>
+      <c r="B12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>800000</v>
+      </c>
+      <c r="B13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>900000</v>
+      </c>
+      <c r="B14">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1000000</v>
+      </c>
+      <c r="B15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1500000</v>
+      </c>
+      <c r="B16">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>50000</v>
+      </c>
+      <c r="B20">
+        <f>$B$38*A20+$B$39</f>
+        <v>1.516667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B33" si="0">$B$38*A21+$B$39</f>
+        <v>11.966667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>150000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>22.416667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>200000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>32.866667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>250000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>43.316667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>300000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>53.766667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>400000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>74.666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>500000</v>
       </c>
-      <c r="B11">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>95.566667</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>600000</v>
       </c>
-      <c r="B12">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>116.466667</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>700000</v>
       </c>
-      <c r="B13">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>137.366667</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="30" spans="1:2">
+      <c r="A30">
         <v>800000</v>
       </c>
-      <c r="B14">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>158.266667</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>900000</v>
       </c>
-      <c r="B15">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>179.166667</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>1000000</v>
       </c>
-      <c r="B16">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>200.066667</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>400000</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>500000</v>
-      </c>
-      <c r="B20">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>600000</v>
-      </c>
-      <c r="B21">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>700000</v>
-      </c>
-      <c r="B22">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>800000</v>
-      </c>
-      <c r="B23">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>900000</v>
-      </c>
-      <c r="B24">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1000000</v>
-      </c>
-      <c r="B25">
-        <v>262</v>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1500000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>304.566667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0.000209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>-8.933333</v>
       </c>
     </row>
   </sheetData>
@@ -3498,7 +4888,307 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625"/>
+    <col min="4" max="4" width="11.7083333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>50000</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>100000</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>150000</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>200000</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>250000</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>300000</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>400000</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>500000</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>600000</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>700000</v>
+      </c>
+      <c r="B12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>800000</v>
+      </c>
+      <c r="B13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>900000</v>
+      </c>
+      <c r="B14">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1000000</v>
+      </c>
+      <c r="B15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1500000</v>
+      </c>
+      <c r="B16">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>50000</v>
+      </c>
+      <c r="B20">
+        <f>$B$38*A20*LOG(A20,2)+$B$39*A20+$B$40</f>
+        <v>4.28252469626901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B33" si="0">$B$38*A21*LOG(A21,2)+$B$39*A21+$B$40</f>
+        <v>11.070434272538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>150000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>20.3050356171615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>200000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>31.1285220050761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>250000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>43.1334925176141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>300000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>56.079993274323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>400000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>84.2092346301521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>500000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>114.701444235228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>600000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>147.076714328646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>700000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>181.017937936903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>800000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>216.299734200304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>900000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>252.753585993096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1000000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>290.248690570456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1500000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>490.262854589229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6.48226858e-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-0.001005746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3.9768837</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A29:A34">
+    <sortCondition ref="A29"/>
+  </sortState>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -3520,24 +5210,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>50000</v>
+      <c r="A2" s="1">
+        <v>3000</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -3545,169 +5235,212 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>250000</v>
+        <v>30000</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>100000</v>
+      </c>
+      <c r="B9">
+        <v>3971</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>400000</v>
+        <v>120000</v>
       </c>
       <c r="B10">
-        <f>0.000000000875*A10*LOG(A10,2)-0.00000001357579*A10+0.0000222658</f>
-        <v>0.00110532396605288</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B16" si="0">0.000000000875*A11*LOG(A11,2)-0.00000001357579*A11+0.0000222658</f>
-        <v>0.00151693204907933</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.00195395836195793</v>
+        <v>14155</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>700000</v>
+        <v>250000</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.00241212248035283</v>
+        <v>25751</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.00288838213210577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>900000</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.00338046261225481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1000000</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.00388659829815865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>400000</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
+        <v>50446</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>500000</v>
+        <v>3000</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <f>$B$38*A20^2+$B$39*A20+$B$40</f>
+        <v>4.256190602</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>600000</v>
+        <v>5000</v>
       </c>
       <c r="B21">
-        <v>147</v>
+        <f>$B$38*A21^2+$B$39*A21+$B$40</f>
+        <v>6.54474392</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>700000</v>
+        <v>10000</v>
       </c>
       <c r="B22">
-        <v>173</v>
+        <f>$B$38*A22^2+$B$39*A22+$B$40</f>
+        <v>20.84897292</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>800000</v>
+        <v>15000</v>
       </c>
       <c r="B23">
-        <v>204</v>
+        <f>$B$38*A23^2+$B$39*A23+$B$40</f>
+        <v>47.41441007</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>900000</v>
+        <v>30000</v>
       </c>
       <c r="B24">
-        <v>234</v>
+        <f>$B$38*A24^2+$B$39*A24+$B$40</f>
+        <v>200.67797042</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1000000</v>
+        <v>60000</v>
       </c>
       <c r="B25">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
+        <f>$B$38*A25^2+$B$39*A25+$B$40</f>
+        <v>838.25771117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>100000</v>
+      </c>
+      <c r="B26">
+        <f>$B$38*A26^2+$B$39*A26+$B$40</f>
+        <v>2374.99168857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>120000</v>
+      </c>
+      <c r="B27">
+        <f>$B$38*A27^2+$B$39*A27+$B$40</f>
+        <v>3437.62767287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>150000</v>
+      </c>
+      <c r="B28">
+        <f>$B$38*A28^2+$B$39*A28+$B$40</f>
+        <v>5399.41789382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>200000</v>
+      </c>
+      <c r="B29">
+        <f>$B$38*A29^2+$B$39*A29+$B$40</f>
+        <v>9649.96491407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>250000</v>
+      </c>
+      <c r="B30">
+        <f>$B$38*A30^2+$B$39*A30+$B$40</f>
+        <v>15126.63274932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>300000</v>
+      </c>
+      <c r="B31">
+        <f>$B$38*A31^2+$B$39*A31+$B$40</f>
+        <v>21829.42139957</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
+      <c r="A33" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.45224163e-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-0.000817516645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.50172307</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A29:A34">
-    <sortCondition ref="A29"/>
-  </sortState>
   <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
